--- a/excel/list.xlsx
+++ b/excel/list.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -387,6 +387,9 @@
       <c r="D1" t="str">
         <v>订单号</v>
       </c>
+      <c r="E1" t="str">
+        <v>地址</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -396,7 +399,10 @@
         <v>18526452309</v>
       </c>
       <c r="D2" t="str">
-        <v>16113945502880</v>
+        <v>全网23123</v>
+      </c>
+      <c r="E2">
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -409,6 +415,9 @@
       <c r="D3" t="str">
         <v>16113133858413</v>
       </c>
+      <c r="E3" t="str">
+        <v>4564644656</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -420,6 +429,9 @@
       <c r="D4" t="str">
         <v>16113238673679</v>
       </c>
+      <c r="E4" t="str">
+        <v>213123123123</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
